--- a/data/trans_orig/ESTUDIOS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>35630</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24602</v>
+        <v>26095</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48322</v>
+        <v>48190</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07211584014122981</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04979438079808989</v>
+        <v>0.05281742563130711</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09780532888384881</v>
+        <v>0.09753819444849647</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -765,19 +765,19 @@
         <v>45902</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34479</v>
+        <v>33958</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60328</v>
+        <v>59458</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09818913637689414</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07375276903665222</v>
+        <v>0.0726398514730556</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1290461721831209</v>
+        <v>0.1271851166877471</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -786,19 +786,19 @@
         <v>81532</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67167</v>
+        <v>66218</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>101050</v>
+        <v>100433</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08479218985813211</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.069853125588296</v>
+        <v>0.06886539197839574</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1050906680302654</v>
+        <v>0.1044492129150819</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>376684</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>358152</v>
+        <v>355359</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>395972</v>
+        <v>393662</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7624195288078156</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7249106299276894</v>
+        <v>0.719257079408877</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8014598586486545</v>
+        <v>0.7967828164288471</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>374</v>
@@ -836,19 +836,19 @@
         <v>356951</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>338979</v>
+        <v>338838</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>374824</v>
+        <v>373945</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7635485622027476</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7251054948678475</v>
+        <v>0.7248048675574307</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8017807079534209</v>
+        <v>0.7999021143355558</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>755</v>
@@ -857,19 +857,19 @@
         <v>733635</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>705185</v>
+        <v>706870</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>757645</v>
+        <v>756276</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7629684437599896</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7333816914972877</v>
+        <v>0.7351331777844196</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7879392461220086</v>
+        <v>0.7865148162555257</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>81750</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>66726</v>
+        <v>66808</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>99493</v>
+        <v>97795</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1654646310509546</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1350552143290401</v>
+        <v>0.13522142028852</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2013757872384793</v>
+        <v>0.1979393951191064</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>68</v>
@@ -907,19 +907,19 @@
         <v>64636</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>51013</v>
+        <v>50492</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>80056</v>
+        <v>79527</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1382623014203583</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1091206932095163</v>
+        <v>0.1080068928090435</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1712467380090996</v>
+        <v>0.1701158612343445</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>151</v>
@@ -928,19 +928,19 @@
         <v>146386</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>125164</v>
+        <v>124845</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>168814</v>
+        <v>170382</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1522393663818783</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1301688583522962</v>
+        <v>0.1298363323570535</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1755642419222396</v>
+        <v>0.1771943544663128</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>192698</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>169304</v>
+        <v>168952</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>217393</v>
+        <v>218903</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2619999380596871</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2301918394079085</v>
+        <v>0.2297132656962515</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2955763131092405</v>
+        <v>0.2976294452014522</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>175</v>
@@ -1053,19 +1053,19 @@
         <v>185156</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>161880</v>
+        <v>160553</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>209581</v>
+        <v>207793</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2960159668130611</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2588037575143429</v>
+        <v>0.2566822665014816</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3350645418577987</v>
+        <v>0.3322062235331463</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>361</v>
@@ -1074,19 +1074,19 @@
         <v>377854</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>347766</v>
+        <v>344405</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>411437</v>
+        <v>413058</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2776333623263951</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2555255362344522</v>
+        <v>0.253056376100629</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3023091104559177</v>
+        <v>0.3035002244793282</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>455142</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>427070</v>
+        <v>427138</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>483416</v>
+        <v>482151</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6188291078371618</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5806616133445454</v>
+        <v>0.5807541925740479</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6572715701489618</v>
+        <v>0.655552270498692</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>355</v>
@@ -1124,19 +1124,19 @@
         <v>374105</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>349518</v>
+        <v>349501</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>399867</v>
+        <v>397093</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5980950775680642</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5587867896830447</v>
+        <v>0.5587598472577899</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6392816497993146</v>
+        <v>0.6348475826235788</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>791</v>
@@ -1145,19 +1145,19 @@
         <v>829246</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>795052</v>
+        <v>791565</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>865054</v>
+        <v>866524</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6092999563213953</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5841755803875915</v>
+        <v>0.5816133121242415</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6356102631861587</v>
+        <v>0.6366904348423711</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>87649</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70170</v>
+        <v>69955</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108338</v>
+        <v>109286</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1191709541031511</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09540650637520237</v>
+        <v>0.09511333918042947</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1473005046127197</v>
+        <v>0.1485901210838877</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -1195,19 +1195,19 @@
         <v>66233</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52291</v>
+        <v>51610</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82054</v>
+        <v>82361</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1058889556188746</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0835992776865937</v>
+        <v>0.0825108012879409</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1311828112248958</v>
+        <v>0.1316734878275929</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -1216,19 +1216,19 @@
         <v>153882</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>130630</v>
+        <v>131659</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>179773</v>
+        <v>180282</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1130666813522095</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09598181420916216</v>
+        <v>0.09673837002963163</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1320909827295875</v>
+        <v>0.1324647998864729</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>137893</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>118955</v>
+        <v>117182</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>161327</v>
+        <v>159940</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2159066916456939</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1862543480229937</v>
+        <v>0.183478508100529</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.252599399042447</v>
+        <v>0.2504276644560952</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>119</v>
@@ -1341,19 +1341,19 @@
         <v>129155</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>108480</v>
+        <v>110001</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>150475</v>
+        <v>151517</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1872510337974498</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1572755436849176</v>
+        <v>0.1594811285367567</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.218161313939841</v>
+        <v>0.2196710954550119</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>255</v>
@@ -1362,19 +1362,19 @@
         <v>267048</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>238415</v>
+        <v>240570</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>297714</v>
+        <v>296633</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2010279659392721</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1794737918279197</v>
+        <v>0.1810958527589883</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.224112931144479</v>
+        <v>0.223298934447572</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>375723</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>350611</v>
+        <v>352900</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>399313</v>
+        <v>402401</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5882919360315247</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5489716437827736</v>
+        <v>0.5525567888818602</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6252270770524726</v>
+        <v>0.630063347582823</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>411</v>
@@ -1412,19 +1412,19 @@
         <v>427215</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>400327</v>
+        <v>399575</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>452484</v>
+        <v>452594</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.619382151740854</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5803992350688342</v>
+        <v>0.57930843943451</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6560167870553135</v>
+        <v>0.6561769295247557</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>771</v>
@@ -1433,19 +1433,19 @@
         <v>802938</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>765629</v>
+        <v>769032</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>837884</v>
+        <v>837676</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6044347443433199</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5763491168403504</v>
+        <v>0.5789106022768581</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.630741164425615</v>
+        <v>0.6305847526478682</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>125052</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>104829</v>
+        <v>105942</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>145013</v>
+        <v>147216</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1958013723227814</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1641367243367594</v>
+        <v>0.165878838794857</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2270553604612429</v>
+        <v>0.2305053919479908</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>128</v>
@@ -1483,19 +1483,19 @@
         <v>133374</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>113226</v>
+        <v>112731</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>155569</v>
+        <v>154758</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1933668144616963</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1641567918909575</v>
+        <v>0.1634385707440379</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2255462245485698</v>
+        <v>0.2243696952329682</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>245</v>
@@ -1504,19 +1504,19 @@
         <v>258426</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>227304</v>
+        <v>232787</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>288312</v>
+        <v>291908</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1945372897174079</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1711092111129667</v>
+        <v>0.1752366820318441</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2170351878562089</v>
+        <v>0.2197423900975685</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>100209</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81739</v>
+        <v>81254</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>120010</v>
+        <v>119787</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1930252927692288</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1574482670352624</v>
+        <v>0.1565139729263969</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2311667505454481</v>
+        <v>0.2307390706662263</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -1629,19 +1629,19 @@
         <v>59614</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46880</v>
+        <v>46054</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>75851</v>
+        <v>75597</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1156118552736302</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09091618684128799</v>
+        <v>0.08931457678406916</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1470991918157581</v>
+        <v>0.1466082019055274</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>149</v>
@@ -1650,19 +1650,19 @@
         <v>159823</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>135318</v>
+        <v>135659</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>185688</v>
+        <v>183525</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1544496819937264</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1307688503889768</v>
+        <v>0.1310978207073681</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1794451498675719</v>
+        <v>0.1773551873466617</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>268113</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>246446</v>
+        <v>244722</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>291479</v>
+        <v>293979</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5164486994264945</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4747134644062866</v>
+        <v>0.4713918168482498</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5614581067701149</v>
+        <v>0.5662730433415523</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>254</v>
@@ -1700,19 +1700,19 @@
         <v>262053</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>237896</v>
+        <v>238242</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>282818</v>
+        <v>285620</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5082080484738456</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4613597497631446</v>
+        <v>0.4620301584474309</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5484781066488291</v>
+        <v>0.5539123220555583</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>505</v>
@@ -1721,19 +1721,19 @@
         <v>530166</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>497920</v>
+        <v>499906</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>561568</v>
+        <v>564753</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5123423303777848</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4811805929712388</v>
+        <v>0.4830989979723178</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.542688401006341</v>
+        <v>0.5457659152912842</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>150826</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>129026</v>
+        <v>130119</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>172043</v>
+        <v>172377</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2905260078042766</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2485346973136438</v>
+        <v>0.25063978504875</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3313950969288303</v>
+        <v>0.3320392091546852</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>192</v>
@@ -1771,19 +1771,19 @@
         <v>193974</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>173793</v>
+        <v>169952</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>216752</v>
+        <v>215884</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3761800962525242</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3370414855201788</v>
+        <v>0.3295930469555068</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4203534090772624</v>
+        <v>0.4186701911815641</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>332</v>
@@ -1792,19 +1792,19 @@
         <v>344800</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>315854</v>
+        <v>312956</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>374990</v>
+        <v>374709</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3332079876284889</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3052349339482676</v>
+        <v>0.3024348313783699</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3623833703602171</v>
+        <v>0.3621116910002543</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>43785</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32148</v>
+        <v>32874</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58981</v>
+        <v>58988</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.113223848243127</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08313198935129115</v>
+        <v>0.08501035477244319</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1525206462512018</v>
+        <v>0.152539290489377</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -1917,19 +1917,19 @@
         <v>29703</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20388</v>
+        <v>19842</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42291</v>
+        <v>41152</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07352419321113228</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05046619156000148</v>
+        <v>0.04911676111683511</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1046849284835982</v>
+        <v>0.1018653067776982</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>70</v>
@@ -1938,19 +1938,19 @@
         <v>73488</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>57848</v>
+        <v>57515</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>90698</v>
+        <v>91998</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09294032117820085</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07316112214779411</v>
+        <v>0.07273963576554004</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1147066890030027</v>
+        <v>0.1163511932435462</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>129668</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>111490</v>
+        <v>111143</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>149060</v>
+        <v>150449</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3353109601148366</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2883043653840372</v>
+        <v>0.2874054906489079</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3854570088923648</v>
+        <v>0.3890478051094194</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>100</v>
@@ -1988,19 +1988,19 @@
         <v>105137</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>88495</v>
+        <v>88053</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>123381</v>
+        <v>123361</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2602492179070549</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2190544302993013</v>
+        <v>0.2179603368713746</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3054091362520868</v>
+        <v>0.3053599901099833</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>232</v>
@@ -2009,19 +2009,19 @@
         <v>234805</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>208961</v>
+        <v>212021</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>261266</v>
+        <v>256396</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2969600757460675</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2642750734532818</v>
+        <v>0.2681448628186485</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3304253999285391</v>
+        <v>0.3242665765546583</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>213257</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>193823</v>
+        <v>193123</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>231248</v>
+        <v>233509</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5514651916420364</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5012102248608564</v>
+        <v>0.499400274885349</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5979871884117446</v>
+        <v>0.6038355190494602</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>268</v>
@@ -2059,19 +2059,19 @@
         <v>269146</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>250430</v>
+        <v>249891</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>286341</v>
+        <v>288227</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6662265888818129</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.619898730698365</v>
+        <v>0.6185643616701477</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.708788266954208</v>
+        <v>0.7134573392347641</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>486</v>
@@ -2080,19 +2080,19 @@
         <v>482403</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>452635</v>
+        <v>458183</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>507665</v>
+        <v>508295</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6100996030757316</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5724518076017647</v>
+        <v>0.5794679748105849</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6420480030846778</v>
+        <v>0.6428454601236542</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>28141</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18805</v>
+        <v>17319</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>41141</v>
+        <v>39214</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09618161318344982</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06427127248417615</v>
+        <v>0.05919233293710131</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.140614170449392</v>
+        <v>0.1340278126774944</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>19</v>
@@ -2205,19 +2205,19 @@
         <v>17623</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10835</v>
+        <v>10267</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26253</v>
+        <v>25978</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05139022970368806</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.031596200525985</v>
+        <v>0.02993899251689409</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07655316674372505</v>
+        <v>0.07575211784955281</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>42</v>
@@ -2226,19 +2226,19 @@
         <v>45765</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>33360</v>
+        <v>33875</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>61940</v>
+        <v>61421</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07201154648708746</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05249319824798123</v>
+        <v>0.05330359082141689</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09746422107606008</v>
+        <v>0.09664803168776789</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>61186</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>48955</v>
+        <v>48411</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>76062</v>
+        <v>76285</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2091219198337455</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1673197954010146</v>
+        <v>0.1654609977255434</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2599660402203592</v>
+        <v>0.2607280094382283</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -2276,19 +2276,19 @@
         <v>42762</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32492</v>
+        <v>32487</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>55676</v>
+        <v>55702</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1246956173580956</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09474668848078729</v>
+        <v>0.0947315084785548</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1623519104317234</v>
+        <v>0.1624266967427171</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>107</v>
@@ -2297,19 +2297,19 @@
         <v>103948</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>87410</v>
+        <v>87071</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>121889</v>
+        <v>125137</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1635642879136302</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1375417915902947</v>
+        <v>0.1370082156075099</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1917946010231646</v>
+        <v>0.1969060324098147</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>203256</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>187908</v>
+        <v>186680</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>218261</v>
+        <v>218773</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6946964669828047</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6422369133666448</v>
+        <v>0.6380420155775522</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7459791047235828</v>
+        <v>0.7477314053596896</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>308</v>
@@ -2347,19 +2347,19 @@
         <v>282548</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>268954</v>
+        <v>268673</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>295036</v>
+        <v>295275</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8239141529382163</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7842740374180783</v>
+        <v>0.7834548612076645</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8603288084776983</v>
+        <v>0.8610269784778121</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>525</v>
@@ -2368,19 +2368,19 @@
         <v>485805</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>463116</v>
+        <v>463508</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>506540</v>
+        <v>506103</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7644241655992824</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7287233658381742</v>
+        <v>0.7293395888748684</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7970525281777301</v>
+        <v>0.7963634933062472</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>13053</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7315</v>
+        <v>6844</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>22364</v>
+        <v>22092</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0621922315351411</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03485408587678276</v>
+        <v>0.03261062352193925</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1065554252006424</v>
+        <v>0.1052566326291883</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -2493,19 +2493,19 @@
         <v>9257</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4465</v>
+        <v>4435</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17356</v>
+        <v>18024</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02772397162439165</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01337166291358232</v>
+        <v>0.01328257479512946</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05197968596054723</v>
+        <v>0.05397942207245472</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>20</v>
@@ -2514,19 +2514,19 @@
         <v>22310</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>13638</v>
+        <v>14328</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>33460</v>
+        <v>32918</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04102743203596984</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02508027578004346</v>
+        <v>0.02634834721527116</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06153097179786281</v>
+        <v>0.06053474572762673</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>26897</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18140</v>
+        <v>18270</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>38073</v>
+        <v>37393</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1281538661923319</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08642974016097708</v>
+        <v>0.08705071115789162</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1814013206262057</v>
+        <v>0.1781624945819411</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -2564,19 +2564,19 @@
         <v>19449</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11484</v>
+        <v>11746</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30029</v>
+        <v>30373</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05824799910806057</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03439352121686289</v>
+        <v>0.03517595661427272</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08993165448375016</v>
+        <v>0.09096177342809952</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>42</v>
@@ -2585,19 +2585,19 @@
         <v>46347</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33805</v>
+        <v>34019</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>60910</v>
+        <v>63538</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08522905175477739</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06216494039557179</v>
+        <v>0.06255820556775726</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.112010064252452</v>
+        <v>0.1168430374169566</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>169933</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>156572</v>
+        <v>157841</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>180335</v>
+        <v>179958</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8096539022725271</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7459982674832504</v>
+        <v>0.7520436061682161</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8592186519464686</v>
+        <v>0.857418958516824</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>266</v>
@@ -2635,19 +2635,19 @@
         <v>305201</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>294473</v>
+        <v>292200</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>315443</v>
+        <v>314458</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9140280292675478</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8818983467605993</v>
+        <v>0.8750903784608299</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9447009120799128</v>
+        <v>0.9417497261676693</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>448</v>
@@ -2656,19 +2656,19 @@
         <v>475134</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>456173</v>
+        <v>457306</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>490538</v>
+        <v>490416</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8737435162092527</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8388761618400189</v>
+        <v>0.8409589575835832</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9020706062900598</v>
+        <v>0.9018465194002668</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>551408</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>506909</v>
+        <v>508010</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>596922</v>
+        <v>600688</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1682895266664256</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1547083909253991</v>
+        <v>0.1550446126267401</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1821803606201461</v>
+        <v>0.1833297997465004</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>452</v>
@@ -2781,19 +2781,19 @@
         <v>476412</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>434610</v>
+        <v>433795</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>516950</v>
+        <v>513047</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1409836667247915</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1286133334959173</v>
+        <v>0.1283723415061033</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1529800382582012</v>
+        <v>0.1518251782734777</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>979</v>
@@ -2802,19 +2802,19 @@
         <v>1027820</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>968555</v>
+        <v>968201</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1086548</v>
+        <v>1088661</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1544260224295014</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.145521768026678</v>
+        <v>0.1454685228849773</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1632497183662329</v>
+        <v>0.1635671674071846</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>1693412</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1636169</v>
+        <v>1639240</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1749888</v>
+        <v>1754871</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5168289865431085</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4993582209860148</v>
+        <v>0.500295582812433</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5340651849202904</v>
+        <v>0.5355859887156508</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1554</v>
@@ -2852,19 +2852,19 @@
         <v>1587673</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1521309</v>
+        <v>1522035</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1639756</v>
+        <v>1641193</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4698373352784287</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4501982972497479</v>
+        <v>0.4504131946474661</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4852502500580329</v>
+        <v>0.4856755405857938</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3203</v>
@@ -2873,19 +2873,19 @@
         <v>3281086</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3194861</v>
+        <v>3199496</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>3358482</v>
+        <v>3357002</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4929707759685117</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4800158513507115</v>
+        <v>0.4807121853212329</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.504599287829434</v>
+        <v>0.5043769577009001</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>1031723</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>978151</v>
+        <v>981457</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1088073</v>
+        <v>1079146</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.314881486790466</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2985314059751181</v>
+        <v>0.2995405507662482</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3320794438032144</v>
+        <v>0.329355013090435</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1291</v>
@@ -2923,19 +2923,19 @@
         <v>1315113</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1262390</v>
+        <v>1262029</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1374457</v>
+        <v>1374349</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3891789979967798</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.373577040571679</v>
+        <v>0.3734701899052664</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.406740756405223</v>
+        <v>0.4067086439045391</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2329</v>
@@ -2944,19 +2944,19 @@
         <v>2346836</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2273571</v>
+        <v>2271059</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2423953</v>
+        <v>2423438</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3526032016019869</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3415954753050385</v>
+        <v>0.3412180620294918</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3641898200763027</v>
+        <v>0.364112409931976</v>
       </c>
     </row>
     <row r="35">
@@ -3291,19 +3291,19 @@
         <v>16737</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10630</v>
+        <v>10292</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26206</v>
+        <v>25952</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03685331266053423</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02340624577975798</v>
+        <v>0.02266211547865167</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05770442504168778</v>
+        <v>0.05714389488201947</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -3312,19 +3312,19 @@
         <v>52513</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39847</v>
+        <v>40155</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67007</v>
+        <v>68184</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1220583349033492</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09261707079806512</v>
+        <v>0.09333282318659186</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1557465719477914</v>
+        <v>0.1584822847548019</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -3333,19 +3333,19 @@
         <v>69250</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54291</v>
+        <v>55081</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85876</v>
+        <v>87703</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07830371592301962</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06138885766505821</v>
+        <v>0.06228288327535563</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09710355849509997</v>
+        <v>0.09916966624329145</v>
       </c>
     </row>
     <row r="5">
@@ -3362,19 +3362,19 @@
         <v>381454</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>364952</v>
+        <v>364750</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>395625</v>
+        <v>395678</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8399379991815968</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8036000994880238</v>
+        <v>0.8031550025947232</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8711396568667886</v>
+        <v>0.8712579510107181</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>334</v>
@@ -3383,19 +3383,19 @@
         <v>340171</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>323940</v>
+        <v>323330</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>357080</v>
+        <v>355859</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7906732963277747</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7529458796718702</v>
+        <v>0.7515293645772446</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8299742396850104</v>
+        <v>0.8271369878079884</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>708</v>
@@ -3404,19 +3404,19 @@
         <v>721626</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>695753</v>
+        <v>699409</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>742589</v>
+        <v>742722</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8159717851469583</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7867166171429448</v>
+        <v>0.7908497847808255</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8396756274047814</v>
+        <v>0.8398256512128355</v>
       </c>
     </row>
     <row r="6">
@@ -3433,19 +3433,19 @@
         <v>55955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>42871</v>
+        <v>43237</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>71085</v>
+        <v>71643</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1232086881578689</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09439953832141085</v>
+        <v>0.09520400161173026</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1565248073873856</v>
+        <v>0.1577534150589957</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -3454,19 +3454,19 @@
         <v>37545</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26157</v>
+        <v>27312</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49406</v>
+        <v>50399</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0872683687688761</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06079837368867867</v>
+        <v>0.06348282305807548</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1148364190671119</v>
+        <v>0.117145467135601</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>92</v>
@@ -3475,19 +3475,19 @@
         <v>93500</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>77656</v>
+        <v>75189</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>114044</v>
+        <v>110886</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1057244989300221</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08780854953750354</v>
+        <v>0.08501949673264651</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1289540139655621</v>
+        <v>0.1253832247878242</v>
       </c>
     </row>
     <row r="7">
@@ -3579,19 +3579,19 @@
         <v>172667</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>150364</v>
+        <v>148712</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>197775</v>
+        <v>194957</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.252005098559231</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2194541917490377</v>
+        <v>0.2170441350093573</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2886511792190962</v>
+        <v>0.2845370115428237</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>155</v>
@@ -3600,19 +3600,19 @@
         <v>167931</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>146341</v>
+        <v>146524</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>192210</v>
+        <v>193691</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2756189840269718</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2401841505439374</v>
+        <v>0.2404844456549372</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3154676071519213</v>
+        <v>0.3178978835618352</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>322</v>
@@ -3621,19 +3621,19 @@
         <v>340597</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>309068</v>
+        <v>307918</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>371968</v>
+        <v>373368</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2631198927494166</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2387626343407218</v>
+        <v>0.2378740960837109</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2873546244026794</v>
+        <v>0.2884358732020752</v>
       </c>
     </row>
     <row r="9">
@@ -3650,19 +3650,19 @@
         <v>446667</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>421923</v>
+        <v>421763</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>473035</v>
+        <v>472179</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6519065528305463</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6157916198509049</v>
+        <v>0.6155582630116559</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.690389619543022</v>
+        <v>0.6891409566735157</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>351</v>
@@ -3671,19 +3671,19 @@
         <v>370722</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>343134</v>
+        <v>345076</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>394293</v>
+        <v>394064</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.608452235878824</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5631723782144122</v>
+        <v>0.5663605169988428</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.647138172551404</v>
+        <v>0.6467630609832848</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>785</v>
@@ -3692,19 +3692,19 @@
         <v>817389</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>782464</v>
+        <v>779023</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>851443</v>
+        <v>852660</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6314530874212516</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6044729813214694</v>
+        <v>0.601814165175191</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6577606371692971</v>
+        <v>0.6587008052703627</v>
       </c>
     </row>
     <row r="10">
@@ -3721,19 +3721,19 @@
         <v>65837</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50936</v>
+        <v>51742</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81478</v>
+        <v>83765</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09608834861022267</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07434125078197809</v>
+        <v>0.07551681351464858</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1189162435738516</v>
+        <v>0.122253551205414</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -3742,19 +3742,19 @@
         <v>70634</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56230</v>
+        <v>53870</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90821</v>
+        <v>85762</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1159287800942041</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0922884325340274</v>
+        <v>0.08841498874414079</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1490612375444081</v>
+        <v>0.1407583653146571</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>128</v>
@@ -3763,19 +3763,19 @@
         <v>136471</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114689</v>
+        <v>115676</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>160668</v>
+        <v>160155</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1054270198293318</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0886002634787677</v>
+        <v>0.08936276682371436</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1241201512569796</v>
+        <v>0.1237240042221184</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>116918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>97481</v>
+        <v>97468</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>138475</v>
+        <v>139796</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1721546249650972</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1435343410659605</v>
+        <v>0.1435157365077153</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.203894998799991</v>
+        <v>0.2058398969905775</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>104</v>
@@ -3888,19 +3888,19 @@
         <v>112228</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>92254</v>
+        <v>91179</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>133430</v>
+        <v>132973</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1578780059380888</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1297791714455996</v>
+        <v>0.1282672903012698</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1877052979217693</v>
+        <v>0.1870623167391566</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>210</v>
@@ -3909,19 +3909,19 @@
         <v>229146</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>198988</v>
+        <v>199197</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>262098</v>
+        <v>258790</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1648535091859738</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1431573459081279</v>
+        <v>0.1433074113950036</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1885603342683981</v>
+        <v>0.1861803458690756</v>
       </c>
     </row>
     <row r="13">
@@ -3938,19 +3938,19 @@
         <v>449421</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>423464</v>
+        <v>418398</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>475217</v>
+        <v>473429</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6617433391683077</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6235227789766736</v>
+        <v>0.6160633644049817</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6997269184416097</v>
+        <v>0.6970929781141078</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>432</v>
@@ -3959,19 +3959,19 @@
         <v>458661</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>429140</v>
+        <v>432599</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>484221</v>
+        <v>488502</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6452289248041453</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.603699931868904</v>
+        <v>0.6085655404664544</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6811863419305811</v>
+        <v>0.6872077276734759</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>866</v>
@@ -3980,19 +3980,19 @@
         <v>908082</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>867071</v>
+        <v>870650</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>942625</v>
+        <v>944918</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6532978065762376</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6237937433667112</v>
+        <v>0.6263682577484058</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6781486420389405</v>
+        <v>0.6797985964310944</v>
       </c>
     </row>
     <row r="14">
@@ -4009,19 +4009,19 @@
         <v>112808</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94515</v>
+        <v>94273</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>135384</v>
+        <v>133893</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1661020358665951</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1391674962646491</v>
+        <v>0.1388110834201754</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1993447595701881</v>
+        <v>0.1971480548190789</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>131</v>
@@ -4030,19 +4030,19 @@
         <v>139961</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>120451</v>
+        <v>119265</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>161449</v>
+        <v>162019</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.196893069257766</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1694465566754048</v>
+        <v>0.1677781322922646</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.227121559435542</v>
+        <v>0.2279234439217206</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>239</v>
@@ -4051,19 +4051,19 @@
         <v>252769</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>225379</v>
+        <v>223873</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>285510</v>
+        <v>282539</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1818486842377885</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.162143164139336</v>
+        <v>0.1610600190877548</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2054030739692189</v>
+        <v>0.2032660092091581</v>
       </c>
     </row>
     <row r="15">
@@ -4155,19 +4155,19 @@
         <v>108134</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>88856</v>
+        <v>89190</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>129313</v>
+        <v>131327</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1759376836870533</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1445713775856784</v>
+        <v>0.145114214992501</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2103955953599296</v>
+        <v>0.2136722439239326</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -4176,19 +4176,19 @@
         <v>87683</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>70042</v>
+        <v>69785</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107025</v>
+        <v>108619</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1422963220476605</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1136673136948678</v>
+        <v>0.113250204374849</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1736850241619721</v>
+        <v>0.1762718219768084</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>162</v>
@@ -4197,19 +4197,19 @@
         <v>195817</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>167785</v>
+        <v>168225</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>223068</v>
+        <v>225076</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1590953770504474</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1363201909031577</v>
+        <v>0.1366778305378706</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1812355676735217</v>
+        <v>0.1828672623199012</v>
       </c>
     </row>
     <row r="17">
@@ -4226,19 +4226,19 @@
         <v>370110</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>343942</v>
+        <v>342790</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>395813</v>
+        <v>398324</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.602180156364116</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5596034038849335</v>
+        <v>0.5577295118185063</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6440000579495281</v>
+        <v>0.6480854878976001</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>295</v>
@@ -4247,19 +4247,19 @@
         <v>337726</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>309963</v>
+        <v>307096</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>364799</v>
+        <v>364154</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5480796438872426</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5030245322383157</v>
+        <v>0.4983711898406267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5920146151297567</v>
+        <v>0.5909685020718124</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>626</v>
@@ -4268,19 +4268,19 @@
         <v>707836</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>666244</v>
+        <v>668129</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>743089</v>
+        <v>742688</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5750951224674479</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5413028670593631</v>
+        <v>0.542834081164464</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.603736544575562</v>
+        <v>0.6034106911387516</v>
       </c>
     </row>
     <row r="18">
@@ -4297,19 +4297,19 @@
         <v>136373</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>115647</v>
+        <v>117392</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>156725</v>
+        <v>158966</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2218821599488307</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1881612954265123</v>
+        <v>0.1910001433186234</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2549963368686168</v>
+        <v>0.2586429040448101</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>173</v>
@@ -4318,19 +4318,19 @@
         <v>190790</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>166547</v>
+        <v>167955</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>213917</v>
+        <v>215841</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3096240340650969</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2702807081369353</v>
+        <v>0.272566179272825</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3471556702596969</v>
+        <v>0.3502772667589059</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>299</v>
@@ -4339,19 +4339,19 @@
         <v>327163</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>295579</v>
+        <v>294079</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>362471</v>
+        <v>360435</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2658095004821047</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2401486943285402</v>
+        <v>0.2389297056388255</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2944962077956221</v>
+        <v>0.2928426475892627</v>
       </c>
     </row>
     <row r="19">
@@ -4443,19 +4443,19 @@
         <v>40151</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29006</v>
+        <v>28114</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>54477</v>
+        <v>55761</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09401635489234089</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06791890674024666</v>
+        <v>0.06583079212046891</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1275605960700834</v>
+        <v>0.1305682474552775</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -4464,19 +4464,19 @@
         <v>16031</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9238</v>
+        <v>9055</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26396</v>
+        <v>26314</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03579859837955678</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02062961061404294</v>
+        <v>0.0202220575131883</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05894641024996944</v>
+        <v>0.05876186813915794</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>50</v>
@@ -4485,19 +4485,19 @@
         <v>56182</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>44131</v>
+        <v>42392</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>75455</v>
+        <v>75114</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06421753453939001</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05044336261102336</v>
+        <v>0.04845596054958969</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.086247784444676</v>
+        <v>0.08585808951087968</v>
       </c>
     </row>
     <row r="21">
@@ -4514,19 +4514,19 @@
         <v>197640</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>176112</v>
+        <v>176236</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>220073</v>
+        <v>219795</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4627867927964026</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4123792878282378</v>
+        <v>0.4126692716731037</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.515315798308946</v>
+        <v>0.5146658650115443</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>146</v>
@@ -4535,19 +4535,19 @@
         <v>167448</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>146588</v>
+        <v>146117</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>192378</v>
+        <v>190009</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3739351547016004</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3273508617085727</v>
+        <v>0.3262991674716031</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4296075865063302</v>
+        <v>0.4243166115514193</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>324</v>
@@ -4556,19 +4556,19 @@
         <v>365088</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>331435</v>
+        <v>331504</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>392827</v>
+        <v>395593</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4173079876990091</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3788412204806711</v>
+        <v>0.3789201732350772</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4490151916925293</v>
+        <v>0.4521768386388574</v>
       </c>
     </row>
     <row r="22">
@@ -4585,19 +4585,19 @@
         <v>189273</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>167331</v>
+        <v>167780</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>209610</v>
+        <v>212173</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4431968523112565</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3918166268851452</v>
+        <v>0.3928674958064473</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4908165887005808</v>
+        <v>0.4968188427957811</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>246</v>
@@ -4606,19 +4606,19 @@
         <v>264321</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>239667</v>
+        <v>242253</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>285975</v>
+        <v>286640</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5902662469188428</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5352105361610491</v>
+        <v>0.5409848124446435</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.638622819339945</v>
+        <v>0.6401078391627466</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>423</v>
@@ -4627,19 +4627,19 @@
         <v>453595</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>425676</v>
+        <v>422382</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>485870</v>
+        <v>487111</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5184744777616008</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4865629746382696</v>
+        <v>0.482797262012903</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5553664296592222</v>
+        <v>0.5567849971263215</v>
       </c>
     </row>
     <row r="23">
@@ -4731,19 +4731,19 @@
         <v>22389</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13527</v>
+        <v>12939</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36458</v>
+        <v>34542</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0722722880662591</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04366669501180622</v>
+        <v>0.04176758262839613</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1176862921743193</v>
+        <v>0.1115023728590015</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -4752,19 +4752,19 @@
         <v>13307</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7436</v>
+        <v>6713</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24880</v>
+        <v>23841</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03769033772358248</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0210630443438054</v>
+        <v>0.01901388350829856</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07047038520604225</v>
+        <v>0.06752854146850537</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>28</v>
@@ -4773,19 +4773,19 @@
         <v>35696</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>24309</v>
+        <v>23448</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>52468</v>
+        <v>53526</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05385269740357847</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03667376493713503</v>
+        <v>0.03537592214215779</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07915676712257495</v>
+        <v>0.08075315531783249</v>
       </c>
     </row>
     <row r="25">
@@ -4802,19 +4802,19 @@
         <v>83599</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67795</v>
+        <v>68752</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100466</v>
+        <v>101376</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2698588806890836</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2188439871674255</v>
+        <v>0.2219340782284292</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3243084351055623</v>
+        <v>0.3272448629602019</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -4823,19 +4823,19 @@
         <v>56141</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42316</v>
+        <v>42970</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>71294</v>
+        <v>69988</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1590178347522965</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1198573579527242</v>
+        <v>0.1217112121975382</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2019377803074473</v>
+        <v>0.1982388028874576</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>128</v>
@@ -4844,19 +4844,19 @@
         <v>139740</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>118196</v>
+        <v>118485</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>161093</v>
+        <v>161898</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2108209526790066</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1783185776534685</v>
+        <v>0.1787538274043516</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2430351709631602</v>
+        <v>0.244250177965393</v>
       </c>
     </row>
     <row r="26">
@@ -4873,19 +4873,19 @@
         <v>203799</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>185248</v>
+        <v>185610</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>222170</v>
+        <v>220484</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6578688312446573</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5979881585876309</v>
+        <v>0.5991540743004494</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7171735010041714</v>
+        <v>0.7117308821549411</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>279</v>
@@ -4894,19 +4894,19 @@
         <v>283603</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>266721</v>
+        <v>266389</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>297887</v>
+        <v>297290</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8032918275241211</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7554757852537435</v>
+        <v>0.7545340589943209</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8437492876583323</v>
+        <v>0.8420609766447118</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>469</v>
@@ -4915,19 +4915,19 @@
         <v>487402</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>460004</v>
+        <v>462979</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>509226</v>
+        <v>510618</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.735326349917415</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6939926918370068</v>
+        <v>0.6984805402059052</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7682518019112115</v>
+        <v>0.770352093827841</v>
       </c>
     </row>
     <row r="27">
@@ -5019,19 +5019,19 @@
         <v>4186</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1053</v>
+        <v>1092</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9688</v>
+        <v>10636</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0167525321329073</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004216294548860682</v>
+        <v>0.004370981007350389</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03877472383752821</v>
+        <v>0.04256904417080695</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -5040,19 +5040,19 @@
         <v>8939</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3509</v>
+        <v>4121</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18152</v>
+        <v>18192</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02311023407738837</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009071051675009937</v>
+        <v>0.01065244233825029</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04692720668420334</v>
+        <v>0.04703109604582385</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>11</v>
@@ -5061,19 +5061,19 @@
         <v>13125</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6666</v>
+        <v>6873</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>21947</v>
+        <v>23604</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0206152369417217</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01047060855891968</v>
+        <v>0.01079528702788756</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03447111612096206</v>
+        <v>0.03707373415986272</v>
       </c>
     </row>
     <row r="29">
@@ -5090,19 +5090,19 @@
         <v>35066</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24235</v>
+        <v>24589</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>49165</v>
+        <v>48736</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1403484255650861</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09699898073171538</v>
+        <v>0.09841486411016094</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1967766067955562</v>
+        <v>0.1950619575816143</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -5111,19 +5111,19 @@
         <v>26933</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>17276</v>
+        <v>18506</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>39542</v>
+        <v>39403</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06962782545753664</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04466327772162298</v>
+        <v>0.04784309864568267</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1022246604777736</v>
+        <v>0.1018658371952662</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>54</v>
@@ -5132,19 +5132,19 @@
         <v>61999</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>48136</v>
+        <v>49532</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>80604</v>
+        <v>82146</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09738120179411261</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07560692443686537</v>
+        <v>0.07779869868090231</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1266041851578498</v>
+        <v>0.1290246834738365</v>
       </c>
     </row>
     <row r="30">
@@ -5161,19 +5161,19 @@
         <v>210599</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>196353</v>
+        <v>196638</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>222126</v>
+        <v>221638</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8428990423020066</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7858794956491256</v>
+        <v>0.7870214267886312</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8890345542833618</v>
+        <v>0.8870792569837915</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>317</v>
@@ -5182,19 +5182,19 @@
         <v>350942</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>336808</v>
+        <v>337013</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>361842</v>
+        <v>361114</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.907261940465075</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8707239026094337</v>
+        <v>0.8712522600043325</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9354406844732307</v>
+        <v>0.9335585649605533</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>505</v>
@@ -5203,19 +5203,19 @@
         <v>561541</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>542598</v>
+        <v>539683</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>577577</v>
+        <v>575752</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8820035612641657</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8522510041499891</v>
+        <v>0.8476713976657574</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9071906881887777</v>
+        <v>0.9043254275687184</v>
       </c>
     </row>
     <row r="31">
@@ -5307,19 +5307,19 @@
         <v>481181</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>440249</v>
+        <v>439111</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>528073</v>
+        <v>529490</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.140705301530565</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1287360753238463</v>
+        <v>0.1284032854826844</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1544171222528681</v>
+        <v>0.1548316377907666</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>412</v>
@@ -5328,19 +5328,19 @@
         <v>458631</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>418494</v>
+        <v>413777</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>500358</v>
+        <v>504419</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1290380895694999</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1177452661646739</v>
+        <v>0.1164180780251009</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1407780941734813</v>
+        <v>0.1419206460135314</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>850</v>
@@ -5349,19 +5349,19 @@
         <v>939813</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>884723</v>
+        <v>876323</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>996977</v>
+        <v>998708</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1347592324222216</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1268600297609699</v>
+        <v>0.1256555708675584</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.142956055376974</v>
+        <v>0.1432042837635524</v>
       </c>
     </row>
     <row r="33">
@@ -5378,19 +5378,19 @@
         <v>1963957</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1902976</v>
+        <v>1906248</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>2022971</v>
+        <v>2026746</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5742931829222782</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5564610641889376</v>
+        <v>0.5574179987410185</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5915497691751744</v>
+        <v>0.5926535126403256</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1635</v>
@@ -5399,19 +5399,19 @@
         <v>1757803</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1700216</v>
+        <v>1699273</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1822466</v>
+        <v>1822405</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4945663375536714</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4783642047066977</v>
+        <v>0.4780987805318888</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5127597080087322</v>
+        <v>0.512742430906509</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3491</v>
@@ -5420,19 +5420,19 @@
         <v>3721760</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3635991</v>
+        <v>3633947</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>3810982</v>
+        <v>3806784</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5336612535518388</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5213629166832029</v>
+        <v>0.5210697731375737</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5464548128971476</v>
+        <v>0.5458528711921562</v>
       </c>
     </row>
     <row r="34">
@@ -5449,19 +5449,19 @@
         <v>974643</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>917115</v>
+        <v>918164</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1027451</v>
+        <v>1031998</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2850015155471569</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2681793594911166</v>
+        <v>0.2684861760847969</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3004434850385819</v>
+        <v>0.3017728927034498</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1247</v>
@@ -5470,19 +5470,19 @@
         <v>1337796</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1277582</v>
+        <v>1278235</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1395093</v>
+        <v>1401578</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3763955728768287</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3594539097542522</v>
+        <v>0.3596376603576684</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.392516265551095</v>
+        <v>0.3943408754051267</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2155</v>
@@ -5491,19 +5491,19 @@
         <v>2312440</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2227632</v>
+        <v>2242443</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2389839</v>
+        <v>2397906</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3315795140259396</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3194190672102404</v>
+        <v>0.3215427808586468</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.342677832818108</v>
+        <v>0.3438344719226277</v>
       </c>
     </row>
     <row r="35">
@@ -5838,19 +5838,19 @@
         <v>41381</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30190</v>
+        <v>29648</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56645</v>
+        <v>55264</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09991416748440392</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07289352652492657</v>
+        <v>0.07158456933698304</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1367704869933769</v>
+        <v>0.1334362727067106</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -5859,19 +5859,19 @@
         <v>45351</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34069</v>
+        <v>34306</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58492</v>
+        <v>58521</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1151754836742835</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08652251218524895</v>
+        <v>0.08712441994415275</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1485466903895316</v>
+        <v>0.1486208801609036</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -5880,19 +5880,19 @@
         <v>86732</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>69770</v>
+        <v>70089</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106587</v>
+        <v>105372</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1073521295307394</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08635715839491037</v>
+        <v>0.0867518142663336</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1319281794364641</v>
+        <v>0.130423255926304</v>
       </c>
     </row>
     <row r="5">
@@ -5909,19 +5909,19 @@
         <v>345420</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>327955</v>
+        <v>328679</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>360319</v>
+        <v>359593</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8340231957378161</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7918544014603464</v>
+        <v>0.7936026733850617</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8699971359569759</v>
+        <v>0.8682446413696046</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>329</v>
@@ -5930,19 +5930,19 @@
         <v>322926</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>308068</v>
+        <v>306967</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>336429</v>
+        <v>336764</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8201102442462449</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.782378255338808</v>
+        <v>0.7795810359878907</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8544033076979525</v>
+        <v>0.8552535409873856</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>652</v>
@@ -5951,19 +5951,19 @@
         <v>668346</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>646691</v>
+        <v>647036</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>688800</v>
+        <v>688039</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.827242390998613</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8004394127493623</v>
+        <v>0.8008662481449904</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8525595619888565</v>
+        <v>0.8516181982971638</v>
       </c>
     </row>
     <row r="6">
@@ -5980,19 +5980,19 @@
         <v>27361</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18065</v>
+        <v>18415</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39633</v>
+        <v>39235</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06606263677777996</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04361893763822237</v>
+        <v>0.04446266707913931</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09569569608507657</v>
+        <v>0.09473337257845189</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>26</v>
@@ -6001,19 +6001,19 @@
         <v>25482</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17200</v>
+        <v>17097</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36687</v>
+        <v>36306</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06471427207947156</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0436827304396946</v>
+        <v>0.04342044593943796</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09317070774580756</v>
+        <v>0.09220314467678947</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>52</v>
@@ -6022,19 +6022,19 @@
         <v>52842</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>40534</v>
+        <v>40372</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67947</v>
+        <v>68361</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06540547947064761</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05017107014731917</v>
+        <v>0.04997031002102047</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08410158453246899</v>
+        <v>0.08461389877017342</v>
       </c>
     </row>
     <row r="7">
@@ -6126,19 +6126,19 @@
         <v>132223</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>113306</v>
+        <v>113156</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>153518</v>
+        <v>153190</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.225799221995389</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1934940617404352</v>
+        <v>0.1932392473515213</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2621649403146618</v>
+        <v>0.2616056439115646</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>167</v>
@@ -6147,19 +6147,19 @@
         <v>163702</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>143532</v>
+        <v>143434</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>186265</v>
+        <v>186246</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2909922573313186</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2551393207238024</v>
+        <v>0.2549649374821115</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3310999917033015</v>
+        <v>0.3310649198331442</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>295</v>
@@ -6168,19 +6168,19 @@
         <v>295925</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>267817</v>
+        <v>268527</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>326457</v>
+        <v>325592</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2577424060919866</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2332614502750051</v>
+        <v>0.2338798456069558</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2843348392507756</v>
+        <v>0.2835816142648399</v>
       </c>
     </row>
     <row r="9">
@@ -6197,19 +6197,19 @@
         <v>388305</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>365630</v>
+        <v>363780</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>409603</v>
+        <v>409096</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6631158457247035</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6243932257214025</v>
+        <v>0.6212339776077973</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6994856783932111</v>
+        <v>0.6986208052302196</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>365</v>
@@ -6218,19 +6218,19 @@
         <v>353761</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>331259</v>
+        <v>329514</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>376122</v>
+        <v>375650</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6288353968901742</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5888367650394809</v>
+        <v>0.5857354996135007</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6685848048075158</v>
+        <v>0.6677452288496785</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>737</v>
@@ -6239,19 +6239,19 @@
         <v>742066</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>708143</v>
+        <v>709804</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>771420</v>
+        <v>774195</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.646319163649803</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6167734264860207</v>
+        <v>0.6182194913705443</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6718857933683967</v>
+        <v>0.6743027687013988</v>
       </c>
     </row>
     <row r="10">
@@ -6268,19 +6268,19 @@
         <v>65049</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50354</v>
+        <v>49907</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81835</v>
+        <v>81390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1110849322799075</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08599110825715071</v>
+        <v>0.08522740945025417</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1397503152586772</v>
+        <v>0.1389911179565353</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -6289,19 +6289,19 @@
         <v>45102</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33034</v>
+        <v>32743</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58305</v>
+        <v>58861</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08017234577850715</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05872037539499087</v>
+        <v>0.05820327056210709</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1036406102985368</v>
+        <v>0.1046296925533389</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>108</v>
@@ -6310,19 +6310,19 @@
         <v>110151</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92415</v>
+        <v>91259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>133523</v>
+        <v>131632</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0959384302582104</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0804909322337361</v>
+        <v>0.07948411604811723</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1162948863607507</v>
+        <v>0.1146482347235357</v>
       </c>
     </row>
     <row r="11">
@@ -6414,19 +6414,19 @@
         <v>151940</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>129807</v>
+        <v>129433</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>174448</v>
+        <v>173652</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2275968322178614</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1944428507677279</v>
+        <v>0.1938822618729095</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.261311236634114</v>
+        <v>0.2601195514527694</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>154</v>
@@ -6435,19 +6435,19 @@
         <v>157822</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>136858</v>
+        <v>138025</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>181073</v>
+        <v>182174</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2400427491604274</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2081563133373992</v>
+        <v>0.2099326394005905</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2754073643179726</v>
+        <v>0.2770817674803405</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>293</v>
@@ -6456,19 +6456,19 @@
         <v>309763</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>279752</v>
+        <v>280742</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>343222</v>
+        <v>346651</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2337723076533479</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.211123413136962</v>
+        <v>0.2118705984251738</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2590234114495619</v>
+        <v>0.2616113226560025</v>
       </c>
     </row>
     <row r="13">
@@ -6485,19 +6485,19 @@
         <v>436542</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>409976</v>
+        <v>412494</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>461415</v>
+        <v>463598</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6539119365185907</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6141170250663662</v>
+        <v>0.6178893579311615</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6911700803365447</v>
+        <v>0.694438950846289</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>440</v>
@@ -6506,19 +6506,19 @@
         <v>436359</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>412276</v>
+        <v>411102</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>459901</v>
+        <v>459792</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6636887923510331</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6270593075590201</v>
+        <v>0.6252733487614167</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6994961085146273</v>
+        <v>0.6993302823079708</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>860</v>
@@ -6527,19 +6527,19 @@
         <v>872902</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>838719</v>
+        <v>838220</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>908882</v>
+        <v>908297</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6587630642666032</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.632965572996982</v>
+        <v>0.6325889475563971</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6859162982641088</v>
+        <v>0.685475056965286</v>
       </c>
     </row>
     <row r="14">
@@ -6556,19 +6556,19 @@
         <v>79103</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64284</v>
+        <v>64623</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95693</v>
+        <v>96927</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1184912312635479</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09629264322974702</v>
+        <v>0.09680096160861935</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1433414039415325</v>
+        <v>0.145190283384327</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>67</v>
@@ -6577,19 +6577,19 @@
         <v>63294</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49142</v>
+        <v>49791</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77884</v>
+        <v>78144</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09626845848853947</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07474426719388215</v>
+        <v>0.07573108650615731</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1184586588008934</v>
+        <v>0.1188551729016432</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>145</v>
@@ -6598,19 +6598,19 @@
         <v>142397</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>121982</v>
+        <v>121194</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>165594</v>
+        <v>165611</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1074646280800489</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0920575503687185</v>
+        <v>0.09146271774632357</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1249706935720137</v>
+        <v>0.1249834950797552</v>
       </c>
     </row>
     <row r="15">
@@ -6702,19 +6702,19 @@
         <v>98907</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79342</v>
+        <v>79931</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>119603</v>
+        <v>118263</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1533539664024504</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1230179059533903</v>
+        <v>0.1239318334681269</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1854424831056216</v>
+        <v>0.1833648711216199</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>95</v>
@@ -6723,19 +6723,19 @@
         <v>103612</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87049</v>
+        <v>85506</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>127135</v>
+        <v>122077</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1603955904872068</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1347549492253304</v>
+        <v>0.132366972303555</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1968106083434449</v>
+        <v>0.1889803570489305</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>181</v>
@@ -6744,19 +6744,19 @@
         <v>202520</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>175228</v>
+        <v>178614</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>227876</v>
+        <v>232878</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1568775473145058</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1357368402908389</v>
+        <v>0.1383595845068342</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1765192882053872</v>
+        <v>0.1803944241112749</v>
       </c>
     </row>
     <row r="17">
@@ -6773,19 +6773,19 @@
         <v>454052</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>427959</v>
+        <v>427568</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>477421</v>
+        <v>476512</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7039975204242265</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6635417856448543</v>
+        <v>0.6629358783243101</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7402312835733962</v>
+        <v>0.7388211167935518</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>385</v>
@@ -6794,19 +6794,19 @@
         <v>417481</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>392774</v>
+        <v>391698</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>441388</v>
+        <v>443281</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.646278079638232</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.608030585087736</v>
+        <v>0.6063652006995562</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6832879160911556</v>
+        <v>0.6862176924589365</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>794</v>
@@ -6815,19 +6815,19 @@
         <v>871533</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>831867</v>
+        <v>835214</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>905818</v>
+        <v>903908</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6751151039021179</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6443888083266753</v>
+        <v>0.6469813716589939</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7016735261488009</v>
+        <v>0.700193679069001</v>
       </c>
     </row>
     <row r="18">
@@ -6844,19 +6844,19 @@
         <v>92003</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>73605</v>
+        <v>76692</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>110227</v>
+        <v>114148</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1426485131733231</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1141234488612386</v>
+        <v>0.1189087197068529</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1709053689243994</v>
+        <v>0.1769835195401941</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>119</v>
@@ -6865,19 +6865,19 @@
         <v>124884</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>106180</v>
+        <v>105150</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>145798</v>
+        <v>146383</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1933263298745612</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1643709687529125</v>
+        <v>0.1627769295398658</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2257011683233923</v>
+        <v>0.226606895156751</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>205</v>
@@ -6886,19 +6886,19 @@
         <v>216887</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>192847</v>
+        <v>188668</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>247325</v>
+        <v>245709</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1680073487833763</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1493852842127587</v>
+        <v>0.1461474441544905</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1915851647911785</v>
+        <v>0.1903330384985829</v>
       </c>
     </row>
     <row r="19">
@@ -6990,19 +6990,19 @@
         <v>80406</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>63573</v>
+        <v>63341</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>98633</v>
+        <v>98168</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1686117334620098</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1333126311404884</v>
+        <v>0.1328260126242739</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2068351686412598</v>
+        <v>0.2058587652907928</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -7011,19 +7011,19 @@
         <v>44979</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32935</v>
+        <v>31826</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59821</v>
+        <v>59367</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09071617275909008</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06642480205762614</v>
+        <v>0.06418882526953533</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1206512149972522</v>
+        <v>0.1197348048181422</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>105</v>
@@ -7032,19 +7032,19 @@
         <v>125384</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>105363</v>
+        <v>103643</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>149863</v>
+        <v>149484</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1289051548375327</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1083218747736659</v>
+        <v>0.1065527880283306</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1540714090366025</v>
+        <v>0.1536817254551341</v>
       </c>
     </row>
     <row r="21">
@@ -7061,19 +7061,19 @@
         <v>259533</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>237982</v>
+        <v>239330</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>282363</v>
+        <v>283512</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5442443298523164</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4990506413991527</v>
+        <v>0.5018774651668494</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5921182302787716</v>
+        <v>0.5945286131638698</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>232</v>
@@ -7082,19 +7082,19 @@
         <v>269699</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>248970</v>
+        <v>247402</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>292301</v>
+        <v>292002</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5439473299123926</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5021392175487883</v>
+        <v>0.4989767162513535</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5895308018638979</v>
+        <v>0.5889284873504957</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>463</v>
@@ -7103,19 +7103,19 @@
         <v>529233</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>497013</v>
+        <v>494690</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>561968</v>
+        <v>560631</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5440929367387727</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.51096850226242</v>
+        <v>0.5085807468454813</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.57774754533282</v>
+        <v>0.5763725103852431</v>
       </c>
     </row>
     <row r="22">
@@ -7132,19 +7132,19 @@
         <v>136930</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>117712</v>
+        <v>118915</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>159799</v>
+        <v>159381</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2871439366856738</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2468445055581782</v>
+        <v>0.2493662198160169</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3351012519826689</v>
+        <v>0.3342234369410673</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>163</v>
@@ -7153,19 +7153,19 @@
         <v>181141</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>158498</v>
+        <v>160441</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>202990</v>
+        <v>202938</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3653364973285174</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3196693813049752</v>
+        <v>0.3235887056282269</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4094034672336008</v>
+        <v>0.4092993361230713</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>287</v>
@@ -7174,19 +7174,19 @@
         <v>318071</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>287830</v>
+        <v>289807</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>349058</v>
+        <v>350023</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3270019084236946</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2959117340868648</v>
+        <v>0.2979446349862174</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3588590303986779</v>
+        <v>0.359851564315789</v>
       </c>
     </row>
     <row r="23">
@@ -7278,19 +7278,19 @@
         <v>29209</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19739</v>
+        <v>19969</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>41961</v>
+        <v>42876</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08789048887214325</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05939613339714436</v>
+        <v>0.0600873364035321</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1262641636010872</v>
+        <v>0.1290159281472693</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -7299,19 +7299,19 @@
         <v>23283</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14956</v>
+        <v>15162</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>35774</v>
+        <v>35665</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06163320971693853</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03959042369166139</v>
+        <v>0.04013698221240315</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09469992559508263</v>
+        <v>0.09441055370816467</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>46</v>
@@ -7320,19 +7320,19 @@
         <v>52491</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>39025</v>
+        <v>39891</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>68282</v>
+        <v>69726</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07392190156565226</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05495755330457433</v>
+        <v>0.05617686493799708</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09615915076195131</v>
+        <v>0.09819279574014493</v>
       </c>
     </row>
     <row r="25">
@@ -7349,19 +7349,19 @@
         <v>134076</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>115859</v>
+        <v>116343</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>151810</v>
+        <v>151748</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4034404274718205</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3486250347177935</v>
+        <v>0.3500810306067762</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4568044772816036</v>
+        <v>0.4566169999750971</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>106</v>
@@ -7370,19 +7370,19 @@
         <v>116546</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>99620</v>
+        <v>96339</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>135923</v>
+        <v>134268</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3085181770436165</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2637103837237532</v>
+        <v>0.2550255527947409</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3598116912944226</v>
+        <v>0.3554312419028831</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>235</v>
@@ -7391,19 +7391,19 @@
         <v>250622</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>225201</v>
+        <v>223881</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>276035</v>
+        <v>276306</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3529428212805049</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3171429933282606</v>
+        <v>0.3152843731262783</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.388730966371547</v>
+        <v>0.389112424832074</v>
       </c>
     </row>
     <row r="26">
@@ -7420,19 +7420,19 @@
         <v>169047</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>151340</v>
+        <v>151833</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>186633</v>
+        <v>186034</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5086690836560362</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4553880970871292</v>
+        <v>0.456873732709045</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5615890558656554</v>
+        <v>0.5597853548159226</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>228</v>
@@ -7441,19 +7441,19 @@
         <v>237933</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>218265</v>
+        <v>219141</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>256760</v>
+        <v>259131</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.629848613239445</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5777842232515167</v>
+        <v>0.5801034844170162</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6796883516573544</v>
+        <v>0.6859632968181066</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>396</v>
@@ -7462,19 +7462,19 @@
         <v>406979</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>379199</v>
+        <v>381802</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>432405</v>
+        <v>435495</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5731352771538429</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5340133063665188</v>
+        <v>0.537678768055718</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6089419641167642</v>
+        <v>0.6132928423063057</v>
       </c>
     </row>
     <row r="27">
@@ -7566,19 +7566,19 @@
         <v>12820</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7224</v>
+        <v>7338</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>22101</v>
+        <v>21861</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05005400699701623</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02820302042334832</v>
+        <v>0.02864856466725604</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08628604211651343</v>
+        <v>0.08535193625392792</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -7587,19 +7587,19 @@
         <v>10391</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3764</v>
+        <v>3798</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21052</v>
+        <v>21444</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02606028119995141</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009440157773096668</v>
+        <v>0.009524243123965928</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05279520499971006</v>
+        <v>0.05377996585345202</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>21</v>
@@ -7608,19 +7608,19 @@
         <v>23212</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14674</v>
+        <v>14409</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>37397</v>
+        <v>35988</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03544459251624586</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02240798009797478</v>
+        <v>0.02200202774349965</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05710581591189035</v>
+        <v>0.05495350557873511</v>
       </c>
     </row>
     <row r="29">
@@ -7637,19 +7637,19 @@
         <v>58456</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>47648</v>
+        <v>46678</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>71397</v>
+        <v>70495</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2282273442081525</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1860297714829152</v>
+        <v>0.1822416591480048</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2787530455215124</v>
+        <v>0.2752300462892184</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>51</v>
@@ -7658,19 +7658,19 @@
         <v>71528</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>54916</v>
+        <v>55133</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>91280</v>
+        <v>92311</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1793828858904512</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1377231364756928</v>
+        <v>0.1382660536474694</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2289191058703049</v>
+        <v>0.2315057539870451</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>119</v>
@@ -7679,19 +7679,19 @@
         <v>129984</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>108138</v>
+        <v>110569</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>151337</v>
+        <v>154048</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.198486696895291</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1651274340492242</v>
+        <v>0.1688405133373064</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2310932080082537</v>
+        <v>0.2352325496842697</v>
       </c>
     </row>
     <row r="30">
@@ -7708,19 +7708,19 @@
         <v>184855</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>170978</v>
+        <v>170607</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>197193</v>
+        <v>196183</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7217186487948313</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6675416234542443</v>
+        <v>0.666093677764091</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7698926813623574</v>
+        <v>0.7659474093485019</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>243</v>
@@ -7729,19 +7729,19 @@
         <v>316824</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>296500</v>
+        <v>295671</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>334813</v>
+        <v>333465</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7945568329095974</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7435869720465395</v>
+        <v>0.7415070679401002</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.839671762953387</v>
+        <v>0.8362913615053766</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>461</v>
@@ -7750,19 +7750,19 @@
         <v>501678</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>478982</v>
+        <v>474910</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>525549</v>
+        <v>522902</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7660687105884632</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7314109262334498</v>
+        <v>0.7251928869535214</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8025199466268708</v>
+        <v>0.7984771735014056</v>
       </c>
     </row>
     <row r="31">
@@ -7854,19 +7854,19 @@
         <v>546886</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>500889</v>
+        <v>498380</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>591179</v>
+        <v>589637</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1619147729998532</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1482965534860588</v>
+        <v>0.1475535614017656</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1750284842773129</v>
+        <v>0.1745719272684658</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>526</v>
@@ -7875,19 +7875,19 @@
         <v>549140</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>505017</v>
+        <v>507052</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>593009</v>
+        <v>599698</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1554713327523181</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1429793028985918</v>
+        <v>0.1435553678654102</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1678914263549025</v>
+        <v>0.1697852218355065</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1027</v>
@@ -7896,19 +7896,19 @@
         <v>1096027</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1034521</v>
+        <v>1035501</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1153671</v>
+        <v>1161098</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1586210239150958</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1497196513775693</v>
+        <v>0.1498615711703657</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1669635909264165</v>
+        <v>0.1680383614090235</v>
       </c>
     </row>
     <row r="33">
@@ -7925,19 +7925,19 @@
         <v>2076385</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2020474</v>
+        <v>2020371</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>2133572</v>
+        <v>2139052</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6147483054432877</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5981948186280931</v>
+        <v>0.5981643183875471</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6316795673022928</v>
+        <v>0.63330202177902</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1908</v>
@@ -7946,19 +7946,19 @@
         <v>1988300</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1927924</v>
+        <v>1926253</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>2049123</v>
+        <v>2046808</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5629228157835786</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5458293318242052</v>
+        <v>0.5453563244822209</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5801429729642795</v>
+        <v>0.5794875910745155</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3860</v>
@@ -7967,19 +7967,19 @@
         <v>4064685</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3982262</v>
+        <v>3979577</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>4150474</v>
+        <v>4145507</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.588256221622215</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5763277276923028</v>
+        <v>0.575939161948518</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6006719232920216</v>
+        <v>0.5999531580787246</v>
       </c>
     </row>
     <row r="34">
@@ -7996,19 +7996,19 @@
         <v>754347</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>711865</v>
+        <v>707409</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>806164</v>
+        <v>804145</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.223336921556859</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2107595200182975</v>
+        <v>0.2094402854434207</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2386782011492035</v>
+        <v>0.2380805347341156</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>892</v>
@@ -8017,19 +8017,19 @@
         <v>994660</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>942118</v>
+        <v>944977</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1051805</v>
+        <v>1051406</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2816058514641033</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2667303496893589</v>
+        <v>0.2675395714453787</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2977845376946814</v>
+        <v>0.2976716592639486</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1654</v>
@@ -8038,19 +8038,19 @@
         <v>1749007</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1674317</v>
+        <v>1681191</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1827007</v>
+        <v>1829648</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2531227544626892</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2423132928888737</v>
+        <v>0.2433082462697153</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2644112953092067</v>
+        <v>0.2647933860516176</v>
       </c>
     </row>
     <row r="35">
@@ -8385,19 +8385,19 @@
         <v>39372</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24452</v>
+        <v>25580</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60787</v>
+        <v>62031</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09654842328814084</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05996235320438583</v>
+        <v>0.06272709087128832</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1490629679746936</v>
+        <v>0.1521134211063551</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -8406,19 +8406,19 @@
         <v>47302</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32522</v>
+        <v>31824</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65810</v>
+        <v>65692</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1304832166561752</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08971268678688558</v>
+        <v>0.08778615743258736</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1815390826291866</v>
+        <v>0.1812146542653464</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -8427,19 +8427,19 @@
         <v>86674</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65036</v>
+        <v>62882</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112414</v>
+        <v>114314</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1125184200596157</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08442914223427885</v>
+        <v>0.08163278816176006</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1459346149427836</v>
+        <v>0.1484004398546284</v>
       </c>
     </row>
     <row r="5">
@@ -8456,19 +8456,19 @@
         <v>348556</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>322383</v>
+        <v>322268</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>367501</v>
+        <v>366789</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8547380868979066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.790554466952903</v>
+        <v>0.7902743960896615</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9011939437416123</v>
+        <v>0.8994497980176149</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>170</v>
@@ -8477,19 +8477,19 @@
         <v>301828</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>280393</v>
+        <v>280361</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>318281</v>
+        <v>318825</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8326006566210135</v>
+        <v>0.8326006566210137</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7734715364040408</v>
+        <v>0.773383831673102</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8779886336572821</v>
+        <v>0.8794881578529554</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>314</v>
@@ -8498,19 +8498,19 @@
         <v>650384</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>619989</v>
+        <v>619590</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>676883</v>
+        <v>676213</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8443200275858451</v>
+        <v>0.8443200275858452</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8048620096997074</v>
+        <v>0.8043436758274271</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8787202155100324</v>
+        <v>0.8778514179645011</v>
       </c>
     </row>
     <row r="6">
@@ -8527,19 +8527,19 @@
         <v>19865</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9706</v>
+        <v>9405</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40235</v>
+        <v>38890</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.04871348981395252</v>
+        <v>0.04871348981395253</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02380064172473412</v>
+        <v>0.02306311108748243</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09866421441214861</v>
+        <v>0.09536657266173716</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -8548,19 +8548,19 @@
         <v>13383</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5306</v>
+        <v>5599</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25589</v>
+        <v>26680</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03691612672281126</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01463751140953905</v>
+        <v>0.01544528368084758</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07058912713102511</v>
+        <v>0.07359892012479555</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -8569,19 +8569,19 @@
         <v>33248</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19059</v>
+        <v>20118</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>53953</v>
+        <v>53824</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04316155235453913</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0247427641697096</v>
+        <v>0.02611640663154078</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07004055622179342</v>
+        <v>0.06987376438504062</v>
       </c>
     </row>
     <row r="7">
@@ -8673,19 +8673,19 @@
         <v>103901</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80255</v>
+        <v>80838</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>130853</v>
+        <v>128333</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.219012928061495</v>
+        <v>0.2190129280614951</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1691694354697405</v>
+        <v>0.1703981260661719</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2758255413040414</v>
+        <v>0.2705128102015817</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>134</v>
@@ -8694,19 +8694,19 @@
         <v>150807</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>130223</v>
+        <v>130241</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>174181</v>
+        <v>175107</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3009625394443992</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2598825743987905</v>
+        <v>0.259918447957791</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.347608685314376</v>
+        <v>0.3494579122542449</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>194</v>
@@ -8715,19 +8715,19 @@
         <v>254708</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>221835</v>
+        <v>221797</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>290062</v>
+        <v>286255</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2611082884253835</v>
+        <v>0.2611082884253834</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2274090055465663</v>
+        <v>0.2273704292032606</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2973505669390093</v>
+        <v>0.2934475165273073</v>
       </c>
     </row>
     <row r="9">
@@ -8744,19 +8744,19 @@
         <v>332023</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>303151</v>
+        <v>305013</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>357853</v>
+        <v>356152</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6998717292727088</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6390125807226613</v>
+        <v>0.6429370093024804</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7543174183523446</v>
+        <v>0.7507323703047067</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>305</v>
@@ -8765,19 +8765,19 @@
         <v>328808</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>303868</v>
+        <v>303301</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>350109</v>
+        <v>349776</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6561944050159614</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6064223777580148</v>
+        <v>0.6052915537899675</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6987042407904066</v>
+        <v>0.6980397733023966</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>519</v>
@@ -8786,19 +8786,19 @@
         <v>660831</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>622025</v>
+        <v>624530</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>693953</v>
+        <v>694970</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6774358363710649</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6376544521222736</v>
+        <v>0.6402221395304207</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7113895707182027</v>
+        <v>0.7124322445392485</v>
       </c>
     </row>
     <row r="10">
@@ -8815,19 +8815,19 @@
         <v>38482</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25676</v>
+        <v>25281</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54843</v>
+        <v>54381</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08111534266579606</v>
+        <v>0.08111534266579609</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05412333788171835</v>
+        <v>0.05329027412425386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1156036216213301</v>
+        <v>0.1146288018887679</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -8836,19 +8836,19 @@
         <v>21468</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13559</v>
+        <v>13551</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32256</v>
+        <v>31652</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04284305553963939</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02705942641982096</v>
+        <v>0.02704409233580054</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06437184446497221</v>
+        <v>0.06316788981055912</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -8857,19 +8857,19 @@
         <v>59950</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42936</v>
+        <v>44332</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78700</v>
+        <v>81598</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06145587520355175</v>
+        <v>0.06145587520355174</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04401511571906944</v>
+        <v>0.04544628115015494</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08067770448845671</v>
+        <v>0.08364857645389481</v>
       </c>
     </row>
     <row r="11">
@@ -8961,19 +8961,19 @@
         <v>164525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>139729</v>
+        <v>141765</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>188691</v>
+        <v>188493</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2659894517540243</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2259012069787634</v>
+        <v>0.2291931025700344</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3050575311266448</v>
+        <v>0.3047375009494369</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>232</v>
@@ -8982,19 +8982,19 @@
         <v>167883</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>150317</v>
+        <v>149670</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>187657</v>
+        <v>187890</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2700878182080091</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2418287223600255</v>
+        <v>0.2407880468038283</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3019004835858018</v>
+        <v>0.3022761601750112</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>373</v>
@@ -9003,19 +9003,19 @@
         <v>332408</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>304515</v>
+        <v>302328</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>364025</v>
+        <v>362400</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2680436647346689</v>
+        <v>0.2680436647346688</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2455516417302107</v>
+        <v>0.2437877914649353</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2935390510046765</v>
+        <v>0.2922281227897795</v>
       </c>
     </row>
     <row r="13">
@@ -9032,19 +9032,19 @@
         <v>400859</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>376367</v>
+        <v>375151</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>428494</v>
+        <v>427309</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6480718200671887</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6084750580329893</v>
+        <v>0.6065096221253171</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6927499221757463</v>
+        <v>0.6908330824188404</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>564</v>
@@ -9053,19 +9053,19 @@
         <v>417625</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>396944</v>
+        <v>396095</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>436493</v>
+        <v>436572</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6718714302585932</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.638600000393303</v>
+        <v>0.6372330434273179</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7022261238339522</v>
+        <v>0.7023529284280881</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>918</v>
@@ -9074,19 +9074,19 @@
         <v>818484</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>783285</v>
+        <v>786468</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>848126</v>
+        <v>850003</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6600008334285804</v>
+        <v>0.6600008334285802</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6316172819630279</v>
+        <v>0.6341838112857623</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6839032513172648</v>
+        <v>0.685416648951191</v>
       </c>
     </row>
     <row r="14">
@@ -9103,19 +9103,19 @@
         <v>53157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>40679</v>
+        <v>39607</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>69318</v>
+        <v>69294</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08593872817878695</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06576626267789877</v>
+        <v>0.0640333397414123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1120669554919685</v>
+        <v>0.1120277783663104</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -9124,19 +9124,19 @@
         <v>36077</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27421</v>
+        <v>26950</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>48497</v>
+        <v>45980</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05804075153339774</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04411459417351946</v>
+        <v>0.04335643998052016</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07802218617684287</v>
+        <v>0.07397179727280352</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>98</v>
@@ -9145,19 +9145,19 @@
         <v>89234</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>73840</v>
+        <v>73205</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>107277</v>
+        <v>108122</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.07195550183675074</v>
+        <v>0.07195550183675073</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05954199255318635</v>
+        <v>0.05903002664918056</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08650462923697179</v>
+        <v>0.08718604257285524</v>
       </c>
     </row>
     <row r="15">
@@ -9249,19 +9249,19 @@
         <v>166870</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>144673</v>
+        <v>144761</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>191565</v>
+        <v>190600</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2394429782517314</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2075926083486697</v>
+        <v>0.207718437193818</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2748787261474823</v>
+        <v>0.2734942279973159</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>283</v>
@@ -9270,19 +9270,19 @@
         <v>182327</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>165329</v>
+        <v>164613</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>203947</v>
+        <v>200164</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.247787122304582</v>
+        <v>0.2477871223045821</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2246865410887963</v>
+        <v>0.2237140335077396</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2771691385625378</v>
+        <v>0.2720278148087584</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>444</v>
@@ -9291,19 +9291,19 @@
         <v>349196</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>323441</v>
+        <v>321462</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>378637</v>
+        <v>378597</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2437283624074236</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2257518337602548</v>
+        <v>0.2243703621531013</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.264276728010543</v>
+        <v>0.2642492573091761</v>
       </c>
     </row>
     <row r="17">
@@ -9320,19 +9320,19 @@
         <v>468456</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>442191</v>
+        <v>442922</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>492989</v>
+        <v>493241</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6721913739960438</v>
+        <v>0.6721913739960437</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6345034414326236</v>
+        <v>0.6355533075187836</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7073947698861399</v>
+        <v>0.7077563444742024</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>751</v>
@@ -9341,19 +9341,19 @@
         <v>482894</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>459873</v>
+        <v>460657</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>502829</v>
+        <v>502351</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6562671510704263</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6249804750560763</v>
+        <v>0.6260462912792344</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6833592030386439</v>
+        <v>0.6827093376598079</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1196</v>
@@ -9362,19 +9362,19 @@
         <v>951350</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>917980</v>
+        <v>916729</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>980529</v>
+        <v>982842</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.664013014156506</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6407218964297768</v>
+        <v>0.6398488564456134</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6843787472361128</v>
+        <v>0.6859937230038965</v>
       </c>
     </row>
     <row r="18">
@@ -9391,19 +9391,19 @@
         <v>61583</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>46156</v>
+        <v>47393</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>78831</v>
+        <v>78747</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08836564775222473</v>
+        <v>0.08836564775222472</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06622907682007345</v>
+        <v>0.06800470282325224</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1131153504540972</v>
+        <v>0.1129944453319027</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>105</v>
@@ -9412,19 +9412,19 @@
         <v>70599</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>58097</v>
+        <v>58877</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>83393</v>
+        <v>83529</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09594572662499164</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07895483299246339</v>
+        <v>0.08001488391335167</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1133328855878633</v>
+        <v>0.1135179647966069</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>161</v>
@@ -9433,19 +9433,19 @@
         <v>132182</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>113108</v>
+        <v>114092</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>151739</v>
+        <v>155597</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.09225862343607033</v>
+        <v>0.09225862343607036</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07894591381982524</v>
+        <v>0.07963270762852798</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1059092280748575</v>
+        <v>0.108602050707389</v>
       </c>
     </row>
     <row r="19">
@@ -9537,19 +9537,19 @@
         <v>118038</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>101016</v>
+        <v>101186</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>139221</v>
+        <v>138699</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1937127706840978</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1657769725591914</v>
+        <v>0.1660572047231675</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2284766422786647</v>
+        <v>0.2276193756824073</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>172</v>
@@ -9558,19 +9558,19 @@
         <v>103272</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>89671</v>
+        <v>88710</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>119360</v>
+        <v>117450</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1699691334028583</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1475837415202036</v>
+        <v>0.1460027673677886</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.196447631289775</v>
+        <v>0.1933040281262144</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>304</v>
@@ -9579,19 +9579,19 @@
         <v>221310</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>198581</v>
+        <v>198821</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>244344</v>
+        <v>244256</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1818580557911977</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1631803918768298</v>
+        <v>0.1633780993325779</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2007853008222734</v>
+        <v>0.2007131122733247</v>
       </c>
     </row>
     <row r="21">
@@ -9608,19 +9608,19 @@
         <v>375960</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>351436</v>
+        <v>352668</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>398441</v>
+        <v>398619</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6169889662464123</v>
+        <v>0.6169889662464122</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5767425990343871</v>
+        <v>0.5787649521822599</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6538826249679038</v>
+        <v>0.6541751305209939</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>602</v>
@@ -9629,19 +9629,19 @@
         <v>362590</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>344359</v>
+        <v>345431</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>381755</v>
+        <v>380902</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5967653988640996</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5667595155592303</v>
+        <v>0.5685233429919999</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6283065448472893</v>
+        <v>0.6269028890630792</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1010</v>
@@ -9650,19 +9650,19 @@
         <v>738551</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>708404</v>
+        <v>708350</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>767692</v>
+        <v>767440</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6068917506178658</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.582118997591942</v>
+        <v>0.5820749485982679</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6308380963223765</v>
+        <v>0.630631207939199</v>
       </c>
     </row>
     <row r="22">
@@ -9679,19 +9679,19 @@
         <v>115348</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>97433</v>
+        <v>96277</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>134477</v>
+        <v>134523</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1892982630694899</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1598983762284738</v>
+        <v>0.1580010051475221</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2206906533179359</v>
+        <v>0.2207655767957238</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>226</v>
@@ -9700,19 +9700,19 @@
         <v>141730</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>125468</v>
+        <v>125237</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>158099</v>
+        <v>158002</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.233265467733042</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2065004552791244</v>
+        <v>0.2061193916513618</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.260206139698145</v>
+        <v>0.2600459210400535</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>349</v>
@@ -9721,19 +9721,19 @@
         <v>257079</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>232805</v>
+        <v>234061</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>283152</v>
+        <v>282641</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2112501935909364</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1913038661081829</v>
+        <v>0.1923357869170969</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2326753959491063</v>
+        <v>0.2322554100397042</v>
       </c>
     </row>
     <row r="23">
@@ -9825,19 +9825,19 @@
         <v>72318</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>59186</v>
+        <v>60328</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>85683</v>
+        <v>85349</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1785824896789783</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1461544483479783</v>
+        <v>0.1489726158650989</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.211585982637552</v>
+        <v>0.2107611044094932</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>105</v>
@@ -9846,19 +9846,19 @@
         <v>55875</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>47078</v>
+        <v>46363</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>66928</v>
+        <v>66757</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1277838651291323</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1076655182098099</v>
+        <v>0.1060290310720796</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1530612039706745</v>
+        <v>0.1526701700477484</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>205</v>
@@ -9867,19 +9867,19 @@
         <v>128194</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>112160</v>
+        <v>113316</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>145235</v>
+        <v>145611</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1522089010531423</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.133171449831826</v>
+        <v>0.1345445910121159</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1724426343938024</v>
+        <v>0.1728898108047143</v>
       </c>
     </row>
     <row r="25">
@@ -9896,19 +9896,19 @@
         <v>205600</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>188163</v>
+        <v>188683</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>222289</v>
+        <v>222618</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5077085199651147</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4646500086198592</v>
+        <v>0.4659339815482225</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5489201503017782</v>
+        <v>0.5497326596509208</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>343</v>
@@ -9917,19 +9917,19 @@
         <v>179138</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>163873</v>
+        <v>164452</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>193908</v>
+        <v>195044</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.40968095932772</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3747705277071202</v>
+        <v>0.3760950678808456</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4434575117206682</v>
+        <v>0.4460558293856032</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>630</v>
@@ -9938,19 +9938,19 @@
         <v>384739</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>360394</v>
+        <v>360547</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>405811</v>
+        <v>406617</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.456814650669343</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4279086009258006</v>
+        <v>0.4280904768605798</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4818338675819744</v>
+        <v>0.4827909861131514</v>
       </c>
     </row>
     <row r="26">
@@ -9967,19 +9967,19 @@
         <v>127039</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>109248</v>
+        <v>112486</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>142496</v>
+        <v>142400</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.313708990355907</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2697756270554094</v>
+        <v>0.2777731396443281</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3518783273129259</v>
+        <v>0.3516413931498825</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>376</v>
@@ -9988,19 +9988,19 @@
         <v>202250</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>187840</v>
+        <v>186652</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>216942</v>
+        <v>217675</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4625351755431477</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4295818828314492</v>
+        <v>0.4268641997084684</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4961367789292498</v>
+        <v>0.4978123965098675</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>556</v>
@@ -10009,19 +10009,19 @@
         <v>329289</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>309658</v>
+        <v>309673</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>355851</v>
+        <v>353948</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3909764482775148</v>
+        <v>0.3909764482775147</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3676683426656849</v>
+        <v>0.3676856845569859</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4225150120481465</v>
+        <v>0.4202552068298478</v>
       </c>
     </row>
     <row r="27">
@@ -10113,19 +10113,19 @@
         <v>46563</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>37839</v>
+        <v>36601</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>57328</v>
+        <v>56459</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1508195077666101</v>
+        <v>0.1508195077666102</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1225624939358037</v>
+        <v>0.11855345960426</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1856878319292279</v>
+        <v>0.1828749401497504</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>48</v>
@@ -10134,19 +10134,19 @@
         <v>27412</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>20722</v>
+        <v>20832</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>35438</v>
+        <v>35541</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.05927488532103077</v>
+        <v>0.05927488532103075</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04481021284894563</v>
+        <v>0.04504777093363511</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07663046038432803</v>
+        <v>0.07685462744848337</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>116</v>
@@ -10155,19 +10155,19 @@
         <v>73974</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>62232</v>
+        <v>62726</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>87156</v>
+        <v>88353</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09592342120616799</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08069680742468389</v>
+        <v>0.08133821649814073</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1130160163776352</v>
+        <v>0.114568861453179</v>
       </c>
     </row>
     <row r="29">
@@ -10184,19 +10184,19 @@
         <v>99112</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>84663</v>
+        <v>86586</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>112429</v>
+        <v>113645</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3210296766471877</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2742306364461166</v>
+        <v>0.280457261226605</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3641641995372087</v>
+        <v>0.3681050100026563</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>186</v>
@@ -10205,19 +10205,19 @@
         <v>98507</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>86588</v>
+        <v>86603</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>112998</v>
+        <v>112122</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2130118257380267</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1872383196933774</v>
+        <v>0.1872701999717496</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2443471294290892</v>
+        <v>0.2424515961161219</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>326</v>
@@ -10226,19 +10226,19 @@
         <v>197619</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>177191</v>
+        <v>178884</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>217451</v>
+        <v>216193</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2562551750416204</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2297656624795462</v>
+        <v>0.2319606083849043</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2819719768800479</v>
+        <v>0.2803400982203337</v>
       </c>
     </row>
     <row r="30">
@@ -10255,19 +10255,19 @@
         <v>163057</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>148554</v>
+        <v>147410</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>177655</v>
+        <v>176894</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.528150815586202</v>
+        <v>0.5281508155862021</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4811767246842346</v>
+        <v>0.4774706676874876</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5754358190727906</v>
+        <v>0.5729699151477231</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>643</v>
@@ -10276,19 +10276,19 @@
         <v>336531</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>320530</v>
+        <v>322255</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>349669</v>
+        <v>349742</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7277132889409426</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6931129690191388</v>
+        <v>0.6968418655042872</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7561219335165692</v>
+        <v>0.7562811350162193</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>891</v>
@@ -10297,19 +10297,19 @@
         <v>499588</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>479865</v>
+        <v>477638</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>523146</v>
+        <v>519478</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.6478214037522116</v>
+        <v>0.6478214037522115</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6222464355677327</v>
+        <v>0.6193587902068035</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6783701546031466</v>
+        <v>0.6736134073397309</v>
       </c>
     </row>
     <row r="31">
@@ -10401,19 +10401,19 @@
         <v>711587</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>661481</v>
+        <v>658000</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>763723</v>
+        <v>764391</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2021162039006206</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1878843737660608</v>
+        <v>0.1868955179540205</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2169246253317053</v>
+        <v>0.217114445207067</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1004</v>
@@ -10422,19 +10422,19 @@
         <v>734877</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>691078</v>
+        <v>694292</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>778759</v>
+        <v>781156</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1971074907699235</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1853597091296884</v>
+        <v>0.1862218118583998</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2088773677410105</v>
+        <v>0.2095204055680803</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1685</v>
@@ -10443,19 +10443,19 @@
         <v>1446464</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1373903</v>
+        <v>1381429</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1512862</v>
+        <v>1511950</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1995401179323074</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.189530266911151</v>
+        <v>0.190568432570005</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2086996398836566</v>
+        <v>0.2085738229894982</v>
       </c>
     </row>
     <row r="33">
@@ -10472,19 +10472,19 @@
         <v>2230566</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2162677</v>
+        <v>2167677</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>2293093</v>
+        <v>2292048</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6335607230659805</v>
+        <v>0.6335607230659807</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6142778032114889</v>
+        <v>0.6156979962323486</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6513204897756679</v>
+        <v>0.6510236578349068</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2921</v>
@@ -10493,19 +10493,19 @@
         <v>2171392</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2117679</v>
+        <v>2115306</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>2225870</v>
+        <v>2222486</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5824069625964751</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5680001184020572</v>
+        <v>0.5673635592940569</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5970190522917045</v>
+        <v>0.5961112102629903</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>4913</v>
@@ -10514,19 +10514,19 @@
         <v>4401958</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4321537</v>
+        <v>4320768</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>4488370</v>
+        <v>4483063</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.607251273685795</v>
+        <v>0.6072512736857952</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5961570669204831</v>
+        <v>0.5960510464843863</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6191717840604763</v>
+        <v>0.6184396779141214</v>
       </c>
     </row>
     <row r="34">
@@ -10543,19 +10543,19 @@
         <v>578529</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>539221</v>
+        <v>534614</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>627215</v>
+        <v>626105</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1643230730333987</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1531581043349651</v>
+        <v>0.1518493960875252</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1781513948427237</v>
+        <v>0.1778363385262801</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1427</v>
@@ -10564,19 +10564,19 @@
         <v>822038</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>780350</v>
+        <v>781034</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>861573</v>
+        <v>862340</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2204855466336016</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2093041355415014</v>
+        <v>0.2094874731023851</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2310894756187021</v>
+        <v>0.2312953939427604</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2118</v>
@@ -10585,19 +10585,19 @@
         <v>1400567</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1346253</v>
+        <v>1340795</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1463303</v>
+        <v>1462936</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.1932086083818974</v>
+        <v>0.1932086083818975</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1857160022178033</v>
+        <v>0.1849630560500745</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.201863043658867</v>
+        <v>0.201812323441685</v>
       </c>
     </row>
     <row r="35">
